--- a/Vivienda/28.3.xlsx
+++ b/Vivienda/28.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Vivienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C77D4F-5E16-4F1A-886F-3F69D6185585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3E69DD-B6FA-464E-8D2D-9E36CA6D710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valor del suelo" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="151">
   <si>
     <t>Codreg</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>Unidad</t>
+  </si>
+  <si>
+    <t>Valor de terreno</t>
   </si>
 </sst>
 </file>
@@ -608,6 +611,67 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -665,39 +729,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -940,13 +971,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -985,6 +1009,13 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1007,34 +1038,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1049,19 +1052,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla7" displayName="Tabla7" ref="A1:J352" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla7" displayName="Tabla7" ref="A1:J352" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:J352" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codprov" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codcom" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comuna" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Región" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Id_Dato" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{BDDA34F0-CE56-4A9B-9C2E-ADDD5B74026F}" name="Dato" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{9B2DC0FA-34B7-4DC4-968E-1CC9B6AE8C03}" name="Unidad" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Valor de Área Homogenea" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codprov" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codcom" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comuna" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Región" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Id_Dato" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{BDDA34F0-CE56-4A9B-9C2E-ADDD5B74026F}" name="Dato" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{9B2DC0FA-34B7-4DC4-968E-1CC9B6AE8C03}" name="Unidad" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Valor de Área Homogenea" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1083,7 +1086,7 @@
   <autoFilter ref="A8:B9" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Fuente"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Link" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1354,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11938,11 +11941,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11974,6 +11980,11 @@
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/Vivienda/28.3.xlsx
+++ b/Vivienda/28.3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3E69DD-B6FA-464E-8D2D-9E36CA6D710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valor del suelo" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="152">
   <si>
     <t>Codreg</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Unidad</t>
   </si>
   <si>
-    <t>Valor de Área Homogenea</t>
+    <t>Valor</t>
   </si>
   <si>
     <t>Iquique</t>
@@ -472,9 +472,6 @@
     <t xml:space="preserve">Diferencia entre el valor del suelo mas alto y el mas bajo </t>
   </si>
   <si>
-    <t>Valor de terreno</t>
-  </si>
-  <si>
     <t>Fuente</t>
   </si>
   <si>
@@ -490,7 +487,11 @@
     <t>Definicion</t>
   </si>
   <si>
-    <t>Las Áreas Homogéneas (AH) se definen como los espacios del territorio que poseen las mismas características urbanas de acuerdo con uso del suelo, infraestructura vial, categoría de edificaciones, accesibilidad y equipamiento urbano, entre otros. De acuerdo con lo anterior, el uso del territorio se valoriza en pesos por metro cuadrado, lo que caracteriza el territorio de cada una de las AH. De esta manera, el indicador permite observar qué sectores, dentro de una comuna, tienen de acuerdo con su actividad, las áreas más y menos costosas, entre otros análisis. Una gran diferencia entre valores altos y bajos de una misma comuna muestra que dentro del mismo territorio es posible encontrar zonas muy dispares en cuanto a su nivel de atracción, lo que puede hablar de una dotación desigual de acceso a oportunidades.</t>
+    <t>Las Áreas Homogéneas (AH) se definen como los espacios del territorio que poseen las mismas características urbanas de acuerdo con uso del suelo, infraestructura vial
+, categoría de edificaciones, accesibilidad y equipamiento urbano, entre otros. De acuerdo con lo anterior, el uso del territorio se valoriza en pesos por metro cuadrado, 
+lo que caracteriza el territorio de cada una de las AH. De esta manera, el indicador permite observar qué sectores, dentro de una comuna, tienen de acuerdo con su
+ actividad, las áreas más y menos costosas, entre otros análisis. Una gran diferencia entre valores altos y bajos de una misma comuna muestra que dentro del 
+mismo territorio es posible encontrar zonas muy dispares en cuanto a su nivel de atracción, lo que puede hablar de una dotación desigual de acceso a oportunidades.</t>
   </si>
   <si>
     <t>*PESOS AL 01.07.2017</t>
@@ -601,12 +602,8 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -614,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,84 +622,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -1158,19 +1092,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla7" displayName="Tabla7" ref="A1:J235" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla7" displayName="Tabla7" ref="A1:J235" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:J235" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codprov" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codcom" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comuna" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Región" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Id_Dato" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{BDDA34F0-CE56-4A9B-9C2E-ADDD5B74026F}" name="Dato" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{9B2DC0FA-34B7-4DC4-968E-1CC9B6AE8C03}" name="Unidad" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Valor de Área Homogenea" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codreg" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codprov" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Codcom" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Comuna" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Región" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Id_Dato" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{BDDA34F0-CE56-4A9B-9C2E-ADDD5B74026F}" name="Dato" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{9B2DC0FA-34B7-4DC4-968E-1CC9B6AE8C03}" name="Unidad" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Valor" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1192,19 +1126,9 @@
   <autoFilter ref="A8:B9" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Fuente"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Link" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B8476EC-D937-40D0-808C-19B0DC6682FD}" name="Tabla1" displayName="Tabla1" ref="A12:A13" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A12:A13" xr:uid="{39F69B5A-EBA8-4D9C-A54D-A2F16C943212}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{3BCE7358-817D-404E-AAEB-7E9160DB5ED1}" name="Definicion" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1473,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8545,18 +8469,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>140</v>
       </c>
@@ -8564,7 +8488,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -8572,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -8580,7 +8504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -8588,48 +8512,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>146</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="216" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B11" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>